--- a/results/multilabel_powerset/41464ps/automl.xlsx
+++ b/results/multilabel_powerset/41464ps/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.725 (0.717 Â± 0.010)</t>
+          <t>0.725 (0.717 ± 0.010)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:31 (00:05:16 Â± 00:00:40)</t>
+          <t>00:04:31 (00:05:16 ± 00:00:40)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:04 (00:00:17 Â± 00:00:07)</t>
+          <t>00:00:04 (00:00:17 ± 00:00:07)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.587 (0.474 Â± 0.051)</t>
+          <t>0.587 (0.474 ± 0.051)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:00 Â± 00:00:00)</t>
+          <t>00:05:00 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.570 (0.471 Â± 0.065)</t>
+          <t>0.570 (0.471 ± 0.065)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:01:01 (00:01:05 Â± 00:00:03)</t>
+          <t>00:01:01 (00:01:05 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:03 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:03 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.429 (0.191 Â± 0.186)</t>
+          <t>0.429 (0.191 ± 0.186)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:07 (00:05:17 Â± 00:00:10)</t>
+          <t>00:05:07 (00:05:17 ± 00:00:10)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.606 (0.481 Â± 0.052)</t>
+          <t>0.606 (0.481 ± 0.052)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:58 (00:05:07 Â± 00:00:07)</t>
+          <t>00:04:58 (00:05:07 ± 00:00:07)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -655,17 +655,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.603 (0.480 Â± 0.063)</t>
+          <t>0.603 (0.480 ± 0.063)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:03 Â± 00:00:04)</t>
+          <t>00:05:00 (00:05:03 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -699,17 +699,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.630 (0.485 Â± 0.056)</t>
+          <t>0.630 (0.485 ± 0.056)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:04 (00:05:09 Â± 00:00:05)</t>
+          <t>00:05:04 (00:05:09 ± 00:00:05)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -743,17 +743,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.362 (0.203 Â± 0.103)</t>
+          <t>0.362 (0.203 ± 0.103)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:07 Â± 00:00:00)</t>
+          <t>00:00:07 (00:00:07 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,17 +775,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.550 (0.435 Â± 0.047)</t>
+          <t>0.550 (0.435 ± 0.047)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:02:04 (00:02:42 Â± 00:00:21)</t>
+          <t>00:02:04 (00:02:42 ± 00:00:21)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -807,17 +807,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.605 (0.512 Â± 0.057)</t>
+          <t>0.605 (0.512 ± 0.057)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:03:09 (00:04:39 Â± 00:00:34)</t>
+          <t>00:03:09 (00:04:39 ± 00:00:34)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -839,17 +839,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.633 (0.513 Â± 0.063)</t>
+          <t>0.633 (0.513 ± 0.063)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:07:30 (00:07:55 Â± 00:00:16)</t>
+          <t>00:07:30 (00:07:55 ± 00:00:16)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.518 (0.394 Â± 0.059)</t>
+          <t>0.518 (0.394 ± 0.059)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:02 (00:06:08 Â± 00:00:48)</t>
+          <t>00:05:02 (00:06:08 ± 00:00:48)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
